--- a/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
+++ b/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="DMTProcessTemplateSetup" sheetId="1" r:id="Re983e01c4fc848d8"/>
+    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="R8e834a26f50e4121"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -342,7 +342,7 @@
       </x:c>
       <x:c r="E6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Einrichtung glob. Dimensionen</x:t>
         </x:is>
       </x:c>
       <x:c r="F6" s="2" t="inlineStr">
@@ -819,20 +819,20 @@
       </x:c>
       <x:c r="B16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Land_Region.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionswerte</x:t>
         </x:is>
       </x:c>
       <x:c r="F16" s="2" t="inlineStr">
@@ -851,13 +851,13 @@
         </x:is>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -873,7 +873,7 @@
       </x:c>
       <x:c r="C17" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Währung.csv</x:t>
+          <x:t xml:space="preserve">Land_Region.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="0" t="n">
@@ -900,7 +900,7 @@
         </x:is>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
       </x:c>
       <x:c r="C18" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sprache.csv</x:t>
+          <x:t xml:space="preserve">Währung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="0" t="n">
@@ -949,7 +949,7 @@
         </x:is>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
         <x:v>0</x:v>
@@ -971,7 +971,7 @@
       </x:c>
       <x:c r="C19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anrede.csv</x:t>
+          <x:t xml:space="preserve">Sprache.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="0" t="n">
@@ -998,7 +998,7 @@
         </x:is>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>5068</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
@@ -1020,7 +1020,7 @@
       </x:c>
       <x:c r="C20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anredeformel.csv</x:t>
+          <x:t xml:space="preserve">Anrede.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="0" t="n">
@@ -1047,7 +1047,7 @@
         </x:is>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>5069</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
@@ -1069,7 +1069,7 @@
       </x:c>
       <x:c r="C21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nummernserie.csv</x:t>
+          <x:t xml:space="preserve">Anredeformel.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="0" t="n">
@@ -1096,7 +1096,7 @@
         </x:is>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>5069</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
@@ -1118,7 +1118,7 @@
       </x:c>
       <x:c r="C22" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
+          <x:t xml:space="preserve">Nummernserie.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="0" t="n">
@@ -1145,7 +1145,7 @@
         </x:is>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
         <x:v>0</x:v>
@@ -1167,7 +1167,7 @@
       </x:c>
       <x:c r="C23" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Position.csv</x:t>
+          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="0" t="n">
@@ -1194,7 +1194,7 @@
         </x:is>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>5070</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>0</x:v>
@@ -1211,12 +1211,12 @@
       </x:c>
       <x:c r="B24" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve">Position.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="0" t="n">
@@ -1243,7 +1243,7 @@
         </x:is>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>5070</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>0</x:v>
@@ -1260,7 +1260,7 @@
       </x:c>
       <x:c r="B25" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" s="2" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </x:c>
       <x:c r="E25" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F25" s="2" t="inlineStr">
@@ -1309,30 +1309,30 @@
       </x:c>
       <x:c r="B26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">0</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H26" s="2" t="inlineStr">
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -1358,30 +1358,30 @@
       </x:c>
       <x:c r="B27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Personenkontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">0</x:t>
         </x:is>
       </x:c>
       <x:c r="H27" s="2" t="inlineStr">
@@ -1390,7 +1390,7 @@
         </x:is>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -1407,30 +1407,30 @@
       </x:c>
       <x:c r="B28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Personenkontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">1</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H28" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </x:is>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -1456,16 +1456,16 @@
       </x:c>
       <x:c r="B29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Debitor.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E29" s="2" t="inlineStr">
         <x:is>
@@ -1474,12 +1474,12 @@
       </x:c>
       <x:c r="F29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">1</x:t>
         </x:is>
       </x:c>
       <x:c r="H29" s="2" t="inlineStr">
@@ -1488,7 +1488,7 @@
         </x:is>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -1510,7 +1510,7 @@
       </x:c>
       <x:c r="C30" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kreditor.csv</x:t>
+          <x:t xml:space="preserve">Debitor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="0" t="n">
@@ -1537,7 +1537,7 @@
         </x:is>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -1549,25 +1549,25 @@
     <x:row r="31">
       <x:c r="A31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kreditor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmale</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F31" s="2" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </x:is>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -1603,20 +1603,20 @@
       </x:c>
       <x:c r="B32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Sachmerkmale</x:t>
         </x:is>
       </x:c>
       <x:c r="F32" s="2" t="inlineStr">
@@ -1635,7 +1635,7 @@
         </x:is>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>5022730</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -1657,7 +1657,7 @@
       </x:c>
       <x:c r="C33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
+          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="0" t="n">
@@ -1684,7 +1684,7 @@
         </x:is>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>5022748</x:v>
+        <x:v>5022730</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -1706,7 +1706,7 @@
       </x:c>
       <x:c r="C34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
+          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="0" t="n">
@@ -1733,7 +1733,7 @@
         </x:is>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>5022705</x:v>
+        <x:v>5022748</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -1755,7 +1755,7 @@
       </x:c>
       <x:c r="C35" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Instruktionen.csv</x:t>
+          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="0" t="n">
@@ -1782,7 +1782,7 @@
         </x:is>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>5022736</x:v>
+        <x:v>5022705</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -1804,7 +1804,7 @@
       </x:c>
       <x:c r="C36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
+          <x:t xml:space="preserve">Instruktionen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="0" t="n">
@@ -1831,7 +1831,7 @@
         </x:is>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>5022714</x:v>
+        <x:v>5022736</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
         <x:v>0</x:v>
@@ -1853,7 +1853,7 @@
       </x:c>
       <x:c r="C37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
+          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="0" t="n">
@@ -1880,7 +1880,7 @@
         </x:is>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>5022728</x:v>
+        <x:v>5022714</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
         <x:v>0</x:v>
@@ -1897,12 +1897,12 @@
       </x:c>
       <x:c r="B38" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Codeunit ausführen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="0" t="n">
@@ -1910,7 +1910,7 @@
       </x:c>
       <x:c r="E38" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F38" s="2" t="inlineStr">
@@ -1929,10 +1929,10 @@
         </x:is>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5022728</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>5278008</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
         <x:v>0</x:v>
@@ -1946,12 +1946,12 @@
       </x:c>
       <x:c r="B39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Codeunit ausführen</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D39" s="0" t="n">
@@ -1959,7 +1959,7 @@
       </x:c>
       <x:c r="E39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
         </x:is>
       </x:c>
       <x:c r="F39" s="2" t="inlineStr">
@@ -1978,10 +1978,10 @@
         </x:is>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>5022715</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5278008</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>0</x:v>
@@ -2000,7 +2000,7 @@
       </x:c>
       <x:c r="C40" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
+          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="0" t="n">
@@ -2027,7 +2027,7 @@
         </x:is>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>5022704</x:v>
+        <x:v>5022715</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
@@ -2049,51 +2049,100 @@
       </x:c>
       <x:c r="C41" s="2" t="inlineStr">
         <x:is>
+          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D41" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E41" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F41" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G41" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H41" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I41" s="0" t="n">
+        <x:v>5022704</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C42" s="2" t="inlineStr">
+        <x:is>
           <x:t xml:space="preserve">Ausprägung Übersetzung.csv</x:t>
         </x:is>
       </x:c>
-      <x:c r="D41" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E41" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="F41" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G41" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="H41" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I41" s="0" t="n">
+      <x:c r="D42" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I42" s="0" t="n">
         <x:v>5022716</x:v>
       </x:c>
-      <x:c r="J41" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K41" s="0" t="n">
+      <x:c r="J42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:pageSetup paperSize="9" orientation="landscape"/>
   <x:headerFooter>
-    <x:oddHeader>&amp;BDMTProcessTemplateSetup&amp;B
-test</x:oddHeader>
+    <x:oddHeader>&amp;BDMT Prozessvorlagen Einrichtung&amp;B
+CRONUS AG</x:oddHeader>
     <x:evenHeader>&amp;D
 MODUS
 Seite &amp;P</x:evenHeader>
   </x:headerFooter>
-  <x:legacyDrawing r:id="Rdf7d91a8a4c940f2"/>
+  <x:legacyDrawing r:id="R7ccabd504850455f"/>
 </x:worksheet>
 </file>
--- a/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
+++ b/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="R8e834a26f50e4121"/>
+    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="Rc97d54f87dfe47e5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -128,7 +128,7 @@
     <x:row r="2">
       <x:c r="A2" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
         </x:is>
       </x:c>
       <x:c r="B2" s="2" t="inlineStr">
@@ -146,7 +146,7 @@
       </x:c>
       <x:c r="E2" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionen</x:t>
+          <x:t xml:space="preserve">Allgemeine Einrichtungen</x:t>
         </x:is>
       </x:c>
       <x:c r="F2" s="2" t="inlineStr">
@@ -177,25 +177,25 @@
     <x:row r="3">
       <x:c r="A3" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
         </x:is>
       </x:c>
       <x:c r="B3" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"> </x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C3" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimension.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Hinweise:</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F3" s="2" t="inlineStr">
@@ -214,7 +214,7 @@
         </x:is>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>0</x:v>
@@ -226,25 +226,25 @@
     <x:row r="4">
       <x:c r="A4" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
         </x:is>
       </x:c>
       <x:c r="B4" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"> </x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C4" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Land_Region.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Fi-Bu Einrichtung der glob. Dimensionen erforderlich</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F4" s="2" t="inlineStr">
@@ -263,7 +263,7 @@
         </x:is>
       </x:c>
       <x:c r="I4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>0</x:v>
@@ -275,25 +275,25 @@
     <x:row r="5">
       <x:c r="A5" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
         </x:is>
       </x:c>
       <x:c r="B5" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"> </x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C5" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Sprache.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E5" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nicht mehr importieren wenn neue Dimensionen hinzugefügt wurden.</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F5" s="2" t="inlineStr">
@@ -312,7 +312,7 @@
         </x:is>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -324,30 +324,30 @@
     <x:row r="6">
       <x:c r="A6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
         </x:is>
       </x:c>
       <x:c r="B6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Währung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Einrichtung glob. Dimensionen</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Global Dimension 1 Code</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G6" s="2" t="inlineStr">
@@ -361,13 +361,13 @@
         </x:is>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -378,20 +378,20 @@
       </x:c>
       <x:c r="B7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimension.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionen</x:t>
         </x:is>
       </x:c>
       <x:c r="F7" s="2" t="inlineStr">
@@ -410,7 +410,7 @@
         </x:is>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -427,12 +427,12 @@
       </x:c>
       <x:c r="B8" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve"> </x:t>
         </x:is>
       </x:c>
       <x:c r="C8" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswert.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D8" s="0" t="n">
@@ -440,7 +440,7 @@
       </x:c>
       <x:c r="E8" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Hinweise:</x:t>
         </x:is>
       </x:c>
       <x:c r="F8" s="2" t="inlineStr">
@@ -459,7 +459,7 @@
         </x:is>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -476,12 +476,12 @@
       </x:c>
       <x:c r="B9" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve"> </x:t>
         </x:is>
       </x:c>
       <x:c r="C9" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionskombination.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D9" s="0" t="n">
@@ -489,7 +489,7 @@
       </x:c>
       <x:c r="E9" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Fi-Bu Einrichtung der glob. Dimensionen erforderlich</x:t>
         </x:is>
       </x:c>
       <x:c r="F9" s="2" t="inlineStr">
@@ -508,7 +508,7 @@
         </x:is>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -525,12 +525,12 @@
       </x:c>
       <x:c r="B10" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve"> </x:t>
         </x:is>
       </x:c>
       <x:c r="C10" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswertkombination.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D10" s="0" t="n">
@@ -538,7 +538,7 @@
       </x:c>
       <x:c r="E10" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Nicht mehr importieren wenn neue Dimensionen hinzugefügt wurden.</x:t>
         </x:is>
       </x:c>
       <x:c r="F10" s="2" t="inlineStr">
@@ -557,7 +557,7 @@
         </x:is>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -574,12 +574,12 @@
       </x:c>
       <x:c r="B11" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Vorgabedimension.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D11" s="0" t="n">
@@ -587,7 +587,7 @@
       </x:c>
       <x:c r="E11" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionen müssen gepflegt sein</x:t>
         </x:is>
       </x:c>
       <x:c r="F11" s="2" t="inlineStr">
@@ -606,13 +606,13 @@
         </x:is>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>352</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -623,12 +623,12 @@
       </x:c>
       <x:c r="B12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionsübersetzung.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D12" s="0" t="n">
@@ -636,12 +636,12 @@
       </x:c>
       <x:c r="E12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Einrichtung glob. Dimensionen</x:t>
         </x:is>
       </x:c>
       <x:c r="F12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Global Dimension 1 Code</x:t>
         </x:is>
       </x:c>
       <x:c r="G12" s="2" t="inlineStr">
@@ -655,13 +655,13 @@
         </x:is>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>388</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -677,7 +677,7 @@
       </x:c>
       <x:c r="C13" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionssatzposten.csv</x:t>
+          <x:t xml:space="preserve">Dimensionswert.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="0" t="n">
@@ -704,7 +704,7 @@
         </x:is>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
         <x:v>0</x:v>
@@ -726,7 +726,7 @@
       </x:c>
       <x:c r="C14" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionssatz-Strukturknoten.csv</x:t>
+          <x:t xml:space="preserve">Dimensionskombination.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="0" t="n">
@@ -753,7 +753,7 @@
         </x:is>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
         <x:v>0</x:v>
@@ -765,25 +765,25 @@
     <x:row r="15">
       <x:c r="A15" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionswertkombination.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt, Kunde, Lieferant</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F15" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
         </x:is>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -814,25 +814,25 @@
     <x:row r="16">
       <x:c r="A16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Vorgabedimension.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswerte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F16" s="2" t="inlineStr">
@@ -851,19 +851,19 @@
         </x:is>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </x:c>
       <x:c r="C17" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Land_Region.csv</x:t>
+          <x:t xml:space="preserve">Dimensionsübersetzung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="0" t="n">
@@ -900,7 +900,7 @@
         </x:is>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
@@ -912,7 +912,7 @@
     <x:row r="18">
       <x:c r="A18" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" s="2" t="inlineStr">
@@ -922,7 +922,7 @@
       </x:c>
       <x:c r="C18" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Währung.csv</x:t>
+          <x:t xml:space="preserve">Dimensionssatzposten.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="0" t="n">
@@ -949,7 +949,7 @@
         </x:is>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
         <x:v>0</x:v>
@@ -961,7 +961,7 @@
     <x:row r="19">
       <x:c r="A19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </x:c>
       <x:c r="C19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sprache.csv</x:t>
+          <x:t xml:space="preserve">Dimensionssatz-Strukturknoten.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="0" t="n">
@@ -998,7 +998,7 @@
         </x:is>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
@@ -1015,20 +1015,20 @@
       </x:c>
       <x:c r="B20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anrede.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kontakt, Kunde, Lieferant</x:t>
         </x:is>
       </x:c>
       <x:c r="F20" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </x:is>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>5068</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
@@ -1064,20 +1064,20 @@
       </x:c>
       <x:c r="B21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anredeformel.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionswerte</x:t>
         </x:is>
       </x:c>
       <x:c r="F21" s="2" t="inlineStr">
@@ -1096,13 +1096,13 @@
         </x:is>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>5069</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -1118,7 +1118,7 @@
       </x:c>
       <x:c r="C22" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nummernserie.csv</x:t>
+          <x:t xml:space="preserve">Land_Region.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="0" t="n">
@@ -1145,7 +1145,7 @@
         </x:is>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
         <x:v>0</x:v>
@@ -1167,7 +1167,7 @@
       </x:c>
       <x:c r="C23" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
+          <x:t xml:space="preserve">Währung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="0" t="n">
@@ -1194,7 +1194,7 @@
         </x:is>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>0</x:v>
@@ -1216,7 +1216,7 @@
       </x:c>
       <x:c r="C24" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Position.csv</x:t>
+          <x:t xml:space="preserve">Sprache.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="0" t="n">
@@ -1243,7 +1243,7 @@
         </x:is>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>5070</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>0</x:v>
@@ -1260,12 +1260,12 @@
       </x:c>
       <x:c r="B25" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve">Anrede.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="0" t="n">
@@ -1292,7 +1292,7 @@
         </x:is>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>0</x:v>
@@ -1309,12 +1309,12 @@
       </x:c>
       <x:c r="B26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve">Anredeformel.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="0" t="n">
@@ -1322,7 +1322,7 @@
       </x:c>
       <x:c r="E26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F26" s="2" t="inlineStr">
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>5069</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -1358,16 +1358,16 @@
       </x:c>
       <x:c r="B27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Nummernserie.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="2" t="inlineStr">
         <x:is>
@@ -1376,12 +1376,12 @@
       </x:c>
       <x:c r="F27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">0</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H27" s="2" t="inlineStr">
@@ -1390,7 +1390,7 @@
         </x:is>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -1407,12 +1407,12 @@
       </x:c>
       <x:c r="B28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="0" t="n">
@@ -1420,7 +1420,7 @@
       </x:c>
       <x:c r="E28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Personenkontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F28" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </x:is>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -1456,16 +1456,16 @@
       </x:c>
       <x:c r="B29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Position.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="2" t="inlineStr">
         <x:is>
@@ -1474,12 +1474,12 @@
       </x:c>
       <x:c r="F29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">1</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H29" s="2" t="inlineStr">
@@ -1488,7 +1488,7 @@
         </x:is>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5070</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -1505,12 +1505,12 @@
       </x:c>
       <x:c r="B30" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Debitor.csv</x:t>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="0" t="n">
@@ -1537,7 +1537,7 @@
         </x:is>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -1554,12 +1554,12 @@
       </x:c>
       <x:c r="B31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kreditor.csv</x:t>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="0" t="n">
@@ -1567,7 +1567,7 @@
       </x:c>
       <x:c r="E31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F31" s="2" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </x:is>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -1598,12 +1598,12 @@
     <x:row r="32">
       <x:c r="A32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" s="2" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </x:c>
       <x:c r="E32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmale</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">0</x:t>
         </x:is>
       </x:c>
       <x:c r="H32" s="2" t="inlineStr">
@@ -1647,17 +1647,17 @@
     <x:row r="33">
       <x:c r="A33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="0" t="n">
@@ -1665,7 +1665,7 @@
       </x:c>
       <x:c r="E33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Personenkontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F33" s="2" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </x:is>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>5022730</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -1696,21 +1696,21 @@
     <x:row r="34">
       <x:c r="A34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E34" s="2" t="inlineStr">
         <x:is>
@@ -1719,12 +1719,12 @@
       </x:c>
       <x:c r="F34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">1</x:t>
         </x:is>
       </x:c>
       <x:c r="H34" s="2" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </x:is>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>5022748</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -1745,7 +1745,7 @@
     <x:row r="35">
       <x:c r="A35" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" s="2" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </x:c>
       <x:c r="C35" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
+          <x:t xml:space="preserve">Debitor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="0" t="n">
@@ -1782,7 +1782,7 @@
         </x:is>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>5022705</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -1794,7 +1794,7 @@
     <x:row r="36">
       <x:c r="A36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" s="2" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </x:c>
       <x:c r="C36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Instruktionen.csv</x:t>
+          <x:t xml:space="preserve">Kreditor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="0" t="n">
@@ -1831,7 +1831,7 @@
         </x:is>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>5022736</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
         <x:v>0</x:v>
@@ -1848,20 +1848,20 @@
       </x:c>
       <x:c r="B37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Sachmerkmale</x:t>
         </x:is>
       </x:c>
       <x:c r="F37" s="2" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </x:is>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>5022714</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
         <x:v>0</x:v>
@@ -1902,7 +1902,7 @@
       </x:c>
       <x:c r="C38" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
+          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="0" t="n">
@@ -1929,7 +1929,7 @@
         </x:is>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>5022728</x:v>
+        <x:v>5022730</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
         <x:v>0</x:v>
@@ -1946,12 +1946,12 @@
       </x:c>
       <x:c r="B39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Codeunit ausführen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="0" t="n">
@@ -1959,7 +1959,7 @@
       </x:c>
       <x:c r="E39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F39" s="2" t="inlineStr">
@@ -1978,10 +1978,10 @@
         </x:is>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5022748</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>5278008</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>0</x:v>
@@ -2000,7 +2000,7 @@
       </x:c>
       <x:c r="C40" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
+          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="0" t="n">
@@ -2027,7 +2027,7 @@
         </x:is>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>5022715</x:v>
+        <x:v>5022705</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
@@ -2049,7 +2049,7 @@
       </x:c>
       <x:c r="C41" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
+          <x:t xml:space="preserve">Instruktionen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="0" t="n">
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>5022704</x:v>
+        <x:v>5022736</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -2098,39 +2098,284 @@
       </x:c>
       <x:c r="C42" s="2" t="inlineStr">
         <x:is>
+          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H42" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I42" s="0" t="n">
+        <x:v>5022714</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D43" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H43" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I43" s="0" t="n">
+        <x:v>5022728</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Codeunit ausführen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H44" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="n">
+        <x:v>5278008</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H45" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I45" s="0" t="n">
+        <x:v>5022715</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D46" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H46" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I46" s="0" t="n">
+        <x:v>5022704</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C47" s="2" t="inlineStr">
+        <x:is>
           <x:t xml:space="preserve">Ausprägung Übersetzung.csv</x:t>
         </x:is>
       </x:c>
-      <x:c r="D42" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E42" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="F42" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G42" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="H42" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I42" s="0" t="n">
+      <x:c r="D47" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="F47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H47" s="2" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I47" s="0" t="n">
         <x:v>5022716</x:v>
       </x:c>
-      <x:c r="J42" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K42" s="0" t="n">
+      <x:c r="J47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2143,6 +2388,6 @@
 MODUS
 Seite &amp;P</x:evenHeader>
   </x:headerFooter>
-  <x:legacyDrawing r:id="R7ccabd504850455f"/>
+  <x:legacyDrawing r:id="Rc55470db529441a3"/>
 </x:worksheet>
 </file>
--- a/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
+++ b/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="Rc97d54f87dfe47e5"/>
+    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="Rcf519628735246e3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2383,11 +2383,11 @@
   <x:pageSetup paperSize="9" orientation="landscape"/>
   <x:headerFooter>
     <x:oddHeader>&amp;BDMT Prozessvorlagen Einrichtung&amp;B
-CRONUS AG</x:oddHeader>
+DMT</x:oddHeader>
     <x:evenHeader>&amp;D
 MODUS
 Seite &amp;P</x:evenHeader>
   </x:headerFooter>
-  <x:legacyDrawing r:id="Rc55470db529441a3"/>
+  <x:legacyDrawing r:id="R2720e9d0b3304dcb"/>
 </x:worksheet>
 </file>
--- a/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
+++ b/DMTNAVUpgradeHelper/src/ProcessTemplate/DefaultProcessTemplateSetup.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="Rcf519628735246e3"/>
+    <x:sheet name="DMT Prozessvorlagen Einrichtung" sheetId="1" r:id="R3868dbe6baa84070"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -324,17 +324,17 @@
     <x:row r="6">
       <x:c r="A6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ALLGEMEINE EINRICHTUNG</x:t>
+          <x:t xml:space="preserve">DIMENSIONS</x:t>
         </x:is>
       </x:c>
       <x:c r="B6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Währung.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D6" s="0" t="n">
@@ -342,7 +342,7 @@
       </x:c>
       <x:c r="E6" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionen</x:t>
         </x:is>
       </x:c>
       <x:c r="F6" s="2" t="inlineStr">
@@ -361,7 +361,7 @@
         </x:is>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -378,7 +378,7 @@
       </x:c>
       <x:c r="B7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve"> </x:t>
         </x:is>
       </x:c>
       <x:c r="C7" s="2" t="inlineStr">
@@ -387,11 +387,11 @@
         </x:is>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionen</x:t>
+          <x:t xml:space="preserve">Hinweise:</x:t>
         </x:is>
       </x:c>
       <x:c r="F7" s="2" t="inlineStr">
@@ -440,7 +440,7 @@
       </x:c>
       <x:c r="E8" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Hinweise:</x:t>
+          <x:t xml:space="preserve">Fi-Bu Einrichtung der glob. Dimensionen erforderlich</x:t>
         </x:is>
       </x:c>
       <x:c r="F8" s="2" t="inlineStr">
@@ -489,7 +489,7 @@
       </x:c>
       <x:c r="E9" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Fi-Bu Einrichtung der glob. Dimensionen erforderlich</x:t>
+          <x:t xml:space="preserve">Nicht mehr importieren wenn neue Dimensionen hinzugefügt wurden.</x:t>
         </x:is>
       </x:c>
       <x:c r="F9" s="2" t="inlineStr">
@@ -525,7 +525,7 @@
       </x:c>
       <x:c r="B10" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"> </x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" s="2" t="inlineStr">
@@ -538,7 +538,7 @@
       </x:c>
       <x:c r="E10" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nicht mehr importieren wenn neue Dimensionen hinzugefügt wurden.</x:t>
+          <x:t xml:space="preserve">Dimensionen müssen gepflegt sein</x:t>
         </x:is>
       </x:c>
       <x:c r="F10" s="2" t="inlineStr">
@@ -557,13 +557,13 @@
         </x:is>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -587,12 +587,12 @@
       </x:c>
       <x:c r="E11" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionen müssen gepflegt sein</x:t>
+          <x:t xml:space="preserve">Einrichtung glob. Dimensionen</x:t>
         </x:is>
       </x:c>
       <x:c r="F11" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Global Dimension 1 Code</x:t>
         </x:is>
       </x:c>
       <x:c r="G11" s="2" t="inlineStr">
@@ -606,13 +606,13 @@
         </x:is>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -623,12 +623,12 @@
       </x:c>
       <x:c r="B12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Dimensionswert.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="0" t="n">
@@ -636,12 +636,12 @@
       </x:c>
       <x:c r="E12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Einrichtung glob. Dimensionen</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F12" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Global Dimension 1 Code</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G12" s="2" t="inlineStr">
@@ -655,13 +655,13 @@
         </x:is>
       </x:c>
       <x:c r="I12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -677,7 +677,7 @@
       </x:c>
       <x:c r="C13" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswert.csv</x:t>
+          <x:t xml:space="preserve">Dimensionskombination.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="0" t="n">
@@ -704,7 +704,7 @@
         </x:is>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
         <x:v>0</x:v>
@@ -726,7 +726,7 @@
       </x:c>
       <x:c r="C14" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionskombination.csv</x:t>
+          <x:t xml:space="preserve">Dimensionswertkombination.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="0" t="n">
@@ -753,7 +753,7 @@
         </x:is>
       </x:c>
       <x:c r="I14" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
         <x:v>0</x:v>
@@ -775,7 +775,7 @@
       </x:c>
       <x:c r="C15" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswertkombination.csv</x:t>
+          <x:t xml:space="preserve">Vorgabedimension.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="0" t="n">
@@ -802,7 +802,7 @@
         </x:is>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -824,7 +824,7 @@
       </x:c>
       <x:c r="C16" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Vorgabedimension.csv</x:t>
+          <x:t xml:space="preserve">Dimensionsübersetzung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="0" t="n">
@@ -851,7 +851,7 @@
         </x:is>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>352</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -873,7 +873,7 @@
       </x:c>
       <x:c r="C17" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionsübersetzung.csv</x:t>
+          <x:t xml:space="preserve">Dimensionssatzposten.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="0" t="n">
@@ -900,7 +900,7 @@
         </x:is>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>388</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
       </x:c>
       <x:c r="C18" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionssatzposten.csv</x:t>
+          <x:t xml:space="preserve">Dimensionssatz-Strukturknoten.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="0" t="n">
@@ -949,7 +949,7 @@
         </x:is>
       </x:c>
       <x:c r="I18" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
         <x:v>0</x:v>
@@ -961,25 +961,25 @@
     <x:row r="19">
       <x:c r="A19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">DIMENSIONS</x:t>
+          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionssatz-Strukturknoten.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E19" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kontakt, Kunde, Lieferant</x:t>
         </x:is>
       </x:c>
       <x:c r="F19" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
         </x:is>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>481</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
@@ -1015,7 +1015,7 @@
       </x:c>
       <x:c r="B20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" s="2" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </x:c>
       <x:c r="E20" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt, Kunde, Lieferant</x:t>
+          <x:t xml:space="preserve">Dimensionswerte</x:t>
         </x:is>
       </x:c>
       <x:c r="F20" s="2" t="inlineStr">
@@ -1053,7 +1053,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -1064,20 +1064,20 @@
       </x:c>
       <x:c r="B21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">benötigte Einrichtung</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Land_Region.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E21" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dimensionswerte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F21" s="2" t="inlineStr">
@@ -1096,13 +1096,13 @@
         </x:is>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -1118,7 +1118,7 @@
       </x:c>
       <x:c r="C22" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Land_Region.csv</x:t>
+          <x:t xml:space="preserve">Währung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="0" t="n">
@@ -1145,7 +1145,7 @@
         </x:is>
       </x:c>
       <x:c r="I22" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
         <x:v>0</x:v>
@@ -1167,7 +1167,7 @@
       </x:c>
       <x:c r="C23" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Währung.csv</x:t>
+          <x:t xml:space="preserve">Sprache.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="0" t="n">
@@ -1194,7 +1194,7 @@
         </x:is>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>0</x:v>
@@ -1216,7 +1216,7 @@
       </x:c>
       <x:c r="C24" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sprache.csv</x:t>
+          <x:t xml:space="preserve">Anrede.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="0" t="n">
@@ -1243,7 +1243,7 @@
         </x:is>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>0</x:v>
@@ -1265,7 +1265,7 @@
       </x:c>
       <x:c r="C25" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anrede.csv</x:t>
+          <x:t xml:space="preserve">Anredeformel.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="0" t="n">
@@ -1292,7 +1292,7 @@
         </x:is>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>5068</x:v>
+        <x:v>5069</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>0</x:v>
@@ -1314,7 +1314,7 @@
       </x:c>
       <x:c r="C26" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anredeformel.csv</x:t>
+          <x:t xml:space="preserve">Nummernserie.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="0" t="n">
@@ -1341,7 +1341,7 @@
         </x:is>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>5069</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -1363,7 +1363,7 @@
       </x:c>
       <x:c r="C27" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nummernserie.csv</x:t>
+          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="0" t="n">
@@ -1390,7 +1390,7 @@
         </x:is>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -1412,7 +1412,7 @@
       </x:c>
       <x:c r="C28" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Verkäufer_Einkäufer.csv</x:t>
+          <x:t xml:space="preserve">Position.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="0" t="n">
@@ -1439,7 +1439,7 @@
         </x:is>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>5070</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -1456,12 +1456,12 @@
       </x:c>
       <x:c r="B29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Position.csv</x:t>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="0" t="n">
@@ -1488,7 +1488,7 @@
         </x:is>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>5070</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -1505,7 +1505,7 @@
       </x:c>
       <x:c r="B30" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Puffertabelle einlesen</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" s="2" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </x:c>
       <x:c r="E30" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F30" s="2" t="inlineStr">
@@ -1554,30 +1554,30 @@
       </x:c>
       <x:c r="B31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Unternehmenskontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G31" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">0</x:t>
         </x:is>
       </x:c>
       <x:c r="H31" s="2" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </x:is>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -1603,30 +1603,30 @@
       </x:c>
       <x:c r="B32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Kontakt.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Personenkontakte</x:t>
         </x:is>
       </x:c>
       <x:c r="F32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G32" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">0</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H32" s="2" t="inlineStr">
@@ -1635,7 +1635,7 @@
         </x:is>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5050</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -1652,30 +1652,30 @@
       </x:c>
       <x:c r="B33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Zieltabelle einlesen</x:t>
+          <x:t xml:space="preserve">Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kontakt.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Personenkontakte</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Type</x:t>
         </x:is>
       </x:c>
       <x:c r="G33" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">1</x:t>
         </x:is>
       </x:c>
       <x:c r="H33" s="2" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </x:is>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -1701,16 +1701,16 @@
       </x:c>
       <x:c r="B34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filter</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Debitor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E34" s="2" t="inlineStr">
         <x:is>
@@ -1719,12 +1719,12 @@
       </x:c>
       <x:c r="F34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Type</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G34" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">1</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H34" s="2" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </x:is>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -1755,7 +1755,7 @@
       </x:c>
       <x:c r="C35" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Debitor.csv</x:t>
+          <x:t xml:space="preserve">Kreditor.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="0" t="n">
@@ -1782,7 +1782,7 @@
         </x:is>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -1794,25 +1794,25 @@
     <x:row r="36">
       <x:c r="A36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">KONTAKT, KUNDE, LIEFERANT</x:t>
+          <x:t xml:space="preserve">SACHMERKMALE</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Gruppe</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kreditor.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E36" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Sachmerkmale</x:t>
         </x:is>
       </x:c>
       <x:c r="F36" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
         </x:is>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
         <x:v>0</x:v>
@@ -1848,20 +1848,20 @@
       </x:c>
       <x:c r="B37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Gruppe</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E37" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmale</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F37" s="2" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </x:is>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5022730</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
         <x:v>0</x:v>
@@ -1902,7 +1902,7 @@
       </x:c>
       <x:c r="C38" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Objekte für Formeln u. Regeln.csv</x:t>
+          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="0" t="n">
@@ -1929,7 +1929,7 @@
         </x:is>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>5022730</x:v>
+        <x:v>5022748</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
         <x:v>0</x:v>
@@ -1951,7 +1951,7 @@
       </x:c>
       <x:c r="C39" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Formeln Variablen Einrichtung.csv</x:t>
+          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="0" t="n">
@@ -1978,7 +1978,7 @@
         </x:is>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>5022748</x:v>
+        <x:v>5022705</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
         <x:v>0</x:v>
@@ -2000,7 +2000,7 @@
       </x:c>
       <x:c r="C40" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmalsgruppen.csv</x:t>
+          <x:t xml:space="preserve">Instruktionen.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="0" t="n">
@@ -2027,7 +2027,7 @@
         </x:is>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>5022705</x:v>
+        <x:v>5022736</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
@@ -2049,7 +2049,7 @@
       </x:c>
       <x:c r="C41" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Instruktionen.csv</x:t>
+          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="0" t="n">
@@ -2076,7 +2076,7 @@
         </x:is>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>5022736</x:v>
+        <x:v>5022714</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -2098,7 +2098,7 @@
       </x:c>
       <x:c r="C42" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Kopf.csv</x:t>
+          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="0" t="n">
@@ -2125,7 +2125,7 @@
         </x:is>
       </x:c>
       <x:c r="I42" s="0" t="n">
-        <x:v>5022714</x:v>
+        <x:v>5022728</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
         <x:v>0</x:v>
@@ -2142,12 +2142,12 @@
       </x:c>
       <x:c r="B43" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
+          <x:t xml:space="preserve">Codeunit ausführen</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal.csv</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="D43" s="0" t="n">
@@ -2155,7 +2155,7 @@
       </x:c>
       <x:c r="E43" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
         </x:is>
       </x:c>
       <x:c r="F43" s="2" t="inlineStr">
@@ -2174,10 +2174,10 @@
         </x:is>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>5022728</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5278008</x:v>
       </x:c>
       <x:c r="K43" s="0" t="n">
         <x:v>0</x:v>
@@ -2191,12 +2191,12 @@
       </x:c>
       <x:c r="B44" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Codeunit ausführen</x:t>
+          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D44" s="0" t="n">
@@ -2204,7 +2204,7 @@
       </x:c>
       <x:c r="E44" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">M365 CMD Update Attribute</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="F44" s="2" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </x:is>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5022715</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>5278008</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
         <x:v>0</x:v>
@@ -2245,7 +2245,7 @@
       </x:c>
       <x:c r="C45" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Globale Auspr.-Pos..csv</x:t>
+          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D45" s="0" t="n">
@@ -2272,7 +2272,7 @@
         </x:is>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>5022715</x:v>
+        <x:v>5022704</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -2294,7 +2294,7 @@
       </x:c>
       <x:c r="C46" s="2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sachmerkmal Übersetzung.csv</x:t>
+          <x:t xml:space="preserve">Ausprägung Übersetzung.csv</x:t>
         </x:is>
       </x:c>
       <x:c r="D46" s="0" t="n">
@@ -2321,61 +2321,12 @@
         </x:is>
       </x:c>
       <x:c r="I46" s="0" t="n">
-        <x:v>5022704</x:v>
+        <x:v>5022716</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47">
-      <x:c r="A47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">SACHMERKMALE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Puffer- und Zieltab. importieren</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Ausprägung Übersetzung.csv</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D47" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="F47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="H47" s="2" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I47" s="0" t="n">
-        <x:v>5022716</x:v>
-      </x:c>
-      <x:c r="J47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2383,11 +2334,11 @@
   <x:pageSetup paperSize="9" orientation="landscape"/>
   <x:headerFooter>
     <x:oddHeader>&amp;BDMT Prozessvorlagen Einrichtung&amp;B
-DMT</x:oddHeader>
+DMT2</x:oddHeader>
     <x:evenHeader>&amp;D
 MODUS
 Seite &amp;P</x:evenHeader>
   </x:headerFooter>
-  <x:legacyDrawing r:id="R2720e9d0b3304dcb"/>
+  <x:legacyDrawing r:id="R432a532eaa304e9b"/>
 </x:worksheet>
 </file>